--- a/Overview/Overview.xlsx
+++ b/Overview/Overview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="155">
   <si>
     <t>No</t>
   </si>
@@ -183,9 +183,6 @@
     <t xml:space="preserve">1 (satu) buah pipet kaca yang didalamnya terdapat sisa shabu dengan berat timbang 1,9 (satu koma sembilan) gram beserta pipetnya; 1 (satu) set alat hisap terbuat dari kaca (bong); 1 (satu) buah korek api warna ungu merk Tokai </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Menyatakan Terdakwa M. Rafiudin Al Zamzami tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?penyalahgunaan narkotika golongan I bagi diri sendiri ? sebagaimana dalam dakwaan Ketiga Penuntut Umum;                                               Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama : 1 ( satu ) tahun ;                                                       Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;      Menetapkan Terdakwa tetap ditahan;            </t>
-  </si>
-  <si>
     <t>50/Pid.Sus/2023/PN Gsk</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
   </si>
   <si>
     <t>1 (satu) bungkus klip plastik kecil berisi sabu, berat timbang bruto : 0,33 gram;1 (satu) buah celana pendek warna cream; 1 (satu) buah hp merk invinix warna hitam nomor ; 08816908461; 1 (satu) buah hp merk realme warna biru nomor ; 085745435142; 1 (satu) buah hp merk realme warna biru nomor ; 087898365644; 1 (satu) unit kendaraan roda dua Honda scopy warna merah tahun 2021 No Pol : L-4143-AAF, no sin ; JM02E1504157 , no ka ; MH1JM0211MK505113, STNK atas nama KHOIRUL HAMZAH berikut STNK dan kunci kontaknya;Uang Rp. 200.000.- ( dua ratus ribu rupiah).</t>
-  </si>
-  <si>
-    <t>1. Menyatakan Terdakwa I KHOIRUL HAMZAH Bin SUGENG RIYANTO dan Terdakwa II YOGA ADI PRANATA Bin AMAR telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?PERMUFAKATAN JAHAT TANPA HAK MENGUASAI NARKOTIKA GOLONGAN I BUKAN TANAMAN?,                     Menjatuhkan pidana kepada para Terdakwa, oleh karena itu dengan pidana penjara selama masing-masing 4 (empat) Tahun serta menjatuhkan pula pidana denda masing-masing sebesar Rp. 800.000.000,00 (delapan ratus juta rupiah) dengan ketentuan apabila pidana denda tersebut tidak dibayar maka diganti dengan pidana penjara masing-masing selama 2 (dua) bulan;                                                                                             Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;   Menetapkan agar para Terdakwa tetap ditahan;</t>
   </si>
   <si>
     <t>77/Pid.Sus/2023/PN Gsk</t>
@@ -273,9 +267,6 @@
   </si>
   <si>
     <t>1(satu) plastk klip berisi Kristal putih yang diduga narkotika jenis shabu sisa pakai dengan berat timbang bruto 0,13 ( nol koma tiga belas ) gram beserta bungkusnya ; 1(satu) set alat hisab (bong) terbuat dari botol plastic ; 1(satu) buah skrop terbuat dari sedotan ; 1(satu) plastic klip baru ; 1(satu) bungkus bekas rokok Gudang Garam Surya berisi plastic klip bekas isi shabu ; 1(satu) pack Catonbad ; 1(satu) buah Hp merk Samsung tipe Galaxi Grandpram warna putih dengan No.Simcard 08123568736; Uang sebesar Rp.9.000,- ( Sembilan ribu rupiah ) ;</t>
-  </si>
-  <si>
-    <t>1. Menyatakan terdakwa WAHYU DWIYANTO ALIAS KOYOT Bin IMAM TAUHID ( ALM ) telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?TANPA HAK MENJUAL NARKOTIKA GOLONGAN I ?;sebagaimana dalam Dakwaan Primair tersebut ;                                                                                            Menjatuhkan pidana terhadap terdakwa tersebut di atas dengan pidana penjara selama 7 (tujuh) Tahun denda sebesar Rp. 1.000.000.000,- ( satu milyard rupiah) dengan ketentuan apabila denda tidak dibayar harus diganti dengan pidana penjara selama 4 ( empat) bulan ;                      Menetapkan masa penahanan yang telah dijalani terdakwa akan dikurangkan seluruhnya dari pidana yang dijatuhkan;                         Memerintahkan terdakwa tetap berada dalam tahanan;</t>
   </si>
   <si>
     <t>44/Pid.Sus/2023/PN Gsk</t>
@@ -405,9 +396,6 @@
     <t>1 (satu) plastik klip yang berisi kristal warna putih diduga narkotika jenis shabu dengan berat timbang bruto 10,52 gram berikut bungkus; 1 (satu) kotak plastik bekas tempat obat yang didalamnya berisi 6 (enam) plastik klip yang berisi kristal putih diduga narkotika jenis shabu dengan berat timbang masing-masing bruto +1,09, +1,07, +1,07, +0,33, +0,32, +0,31, gram berikut bungkusnya; 1 (satu) dompet merah yang didalamnya berisi 4(empat) pack plastik klip; 1 (satu) botol bong bekas minuman yang terdapat 2(dua) lubang beserta sedotan plastik; 1(satu) HP SAMSUNG A50 warna biru tua dengan No. Simcard : 0821-</t>
   </si>
   <si>
-    <t>1. Menyatakan bahwa Terdakwa ABDUL LATIF telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak menjual Narkotika Golongan I dalam bentuk bukan tanaman beratnya melebihi 5 (lima) gram? sebagaimana dakwaan alternatif kesatu Penuntut Umum;                                                                        Menjatuhkan pidana terhadap Terdakwa ABDUL LATIF dengan pidana penjara selama 10 (sepuluh) tahun dan denda sebesar Rp1.500.000.000,- (satu milyar lima ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar, maka digantikan dengan pidana penjara selama 6 (enam) bulan;                                   Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;               Menetapkan Terdakwa tetap ditahan;</t>
-  </si>
-  <si>
     <t>145/Pid.Sus/2023/PN Gsk</t>
   </si>
   <si>
@@ -487,6 +475,18 @@
   </si>
   <si>
     <t xml:space="preserve">Menyatakan Terdakwa ZAINUL ARIFIN Bin MAHMUD, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Tanpa hak menjadi perantara dalam jual beli Narkotika Golongan I dalam bentuk bukan tanaman? sebagaimana dakwaan alternatif Kesatu;                                                                           Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 6 (enam) tahun dan denda sejumlah Rp. 1.000.000.000,- (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan;                                                                                      Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;        Menetapkan Terdakwa tetap berada dalam tahanan;                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Menyatakan Terdakwa M. Rafiudin Al Zamzami tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?penyalahgunaan narkotika golongan I bagi diri sendiri ? sebagaimana dalam dakwaan Ketiga Penuntut Umum;                                               Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama : 1 ( satu ) tahun ;                                                       Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;      Menetapkan Terdakwa tetap ditahan;            </t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa KHOIRUL HAMZAH Bin SUGENG RIYANTO dan Terdakwa YOGA ADI PRANATA Bin AMAR telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?PERMUFAKATAN JAHAT TANPA HAK MENGUASAI NARKOTIKA GOLONGAN I BUKAN TANAMAN?,                     Menjatuhkan pidana kepada para Terdakwa, oleh karena itu dengan pidana penjara selama masing-masing 4 (empat) Tahun serta menjatuhkan pula pidana denda masing-masing sebesar Rp. 800.000.000,00 (delapan ratus juta rupiah) dengan ketentuan apabila pidana denda tersebut tidak dibayar maka diganti dengan pidana penjara masing-masing selama 2 (dua) bulan;                                                                                             Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;   Menetapkan agar para Terdakwa tetap ditahan;</t>
+  </si>
+  <si>
+    <t>Menyatakan terdakwa WAHYU DWIYANTO ALIAS KOYOT Bin IMAM TAUHID ( ALM ) telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?TANPA HAK MENJUAL NARKOTIKA GOLONGAN I ?;sebagaimana dalam Dakwaan Primair tersebut ;                                                                                            Menjatuhkan pidana terhadap terdakwa tersebut di atas dengan pidana penjara selama 7 (tujuh) Tahun denda sebesar Rp. 1.000.000.000,- ( satu milyard rupiah) dengan ketentuan apabila denda tidak dibayar harus diganti dengan pidana penjara selama 4 ( empat) bulan ;                      Menetapkan masa penahanan yang telah dijalani terdakwa akan dikurangkan seluruhnya dari pidana yang dijatuhkan;                         Memerintahkan terdakwa tetap berada dalam tahanan;</t>
+  </si>
+  <si>
+    <t>Menyatakan bahwa Terdakwa ABDUL LATIF telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak menjual Narkotika Golongan I dalam bentuk bukan tanaman beratnya melebihi 5 (lima) gram? sebagaimana dakwaan alternatif kesatu Penuntut Umum;                                                                        Menjatuhkan pidana terhadap Terdakwa ABDUL LATIF dengan pidana penjara selama 10 (sepuluh) tahun dan denda sebesar Rp1.500.000.000,- (satu milyar lima ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar, maka digantikan dengan pidana penjara selama 6 (enam) bulan;                                   Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;               Menetapkan Terdakwa tetap ditahan;</t>
   </si>
 </sst>
 </file>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E383"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="B51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +897,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -931,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -948,7 +948,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
@@ -982,7 +982,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
@@ -999,7 +999,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>24</v>
@@ -1016,7 +1016,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -1033,7 +1033,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>30</v>
@@ -1050,7 +1050,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>34</v>
@@ -1067,7 +1067,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>37</v>
@@ -1084,7 +1084,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>40</v>
@@ -1101,7 +1101,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>43</v>
@@ -1118,13 +1118,13 @@
         <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="299.25" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -1152,7 +1152,7 @@
         <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>51</v>
@@ -1168,12 +1168,14 @@
       <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="189" x14ac:dyDescent="0.25">
@@ -1181,16 +1183,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="189" x14ac:dyDescent="0.25">
@@ -1198,33 +1200,33 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="252" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
@@ -1232,16 +1234,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="173.25" x14ac:dyDescent="0.25">
@@ -1249,16 +1251,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="252" x14ac:dyDescent="0.25">
@@ -1266,16 +1268,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
@@ -1283,16 +1285,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="173.25" x14ac:dyDescent="0.25">
@@ -1300,16 +1302,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="189" x14ac:dyDescent="0.25">
@@ -1317,16 +1319,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="220.5" x14ac:dyDescent="0.25">
@@ -1334,16 +1336,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="252" x14ac:dyDescent="0.25">
@@ -1351,16 +1353,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="346.5" x14ac:dyDescent="0.25">
@@ -1368,16 +1370,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="189" x14ac:dyDescent="0.25">
@@ -1385,16 +1387,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="236.25" x14ac:dyDescent="0.25">
@@ -1405,13 +1407,13 @@
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -1419,16 +1421,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="252" x14ac:dyDescent="0.25">
@@ -1436,16 +1438,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="283.5" x14ac:dyDescent="0.25">
@@ -1453,16 +1455,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="220.5" x14ac:dyDescent="0.25">
@@ -1470,16 +1472,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="330.75" x14ac:dyDescent="0.25">
@@ -1487,16 +1489,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="189" x14ac:dyDescent="0.25">
@@ -1504,16 +1506,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="315" x14ac:dyDescent="0.25">
@@ -1521,16 +1523,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -1538,16 +1540,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="236.25" x14ac:dyDescent="0.25">
@@ -1555,16 +1557,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="173.25" x14ac:dyDescent="0.25">
@@ -1572,16 +1574,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="283.5" x14ac:dyDescent="0.25">
@@ -1589,16 +1591,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="252" x14ac:dyDescent="0.25">
@@ -1606,16 +1608,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
@@ -1623,16 +1625,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="173.25" x14ac:dyDescent="0.25">
@@ -1640,16 +1642,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
@@ -1657,16 +1659,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="173.25" x14ac:dyDescent="0.25">
@@ -1674,16 +1676,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="267.75" x14ac:dyDescent="0.25">
@@ -1691,16 +1693,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="189" x14ac:dyDescent="0.25">
@@ -1708,16 +1710,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
@@ -1725,16 +1727,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
